--- a/ACF /data/north31.xlsx
+++ b/ACF /data/north31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamil/PS/ACF /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F6B18-AA81-AC40-B447-276C6DB6AF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237E73E0-D16F-FA4F-B6DE-EB5ACE8082B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="46540" windowHeight="25240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="137">
   <si>
     <t>Start Date</t>
   </si>
@@ -439,6 +439,18 @@
   <si>
     <t>dates</t>
   </si>
+  <si>
+    <t>DAX Index.5</t>
+  </si>
+  <si>
+    <t>OMXS30B Index.5</t>
+  </si>
+  <si>
+    <t>OMXC25 Index.5</t>
+  </si>
+  <si>
+    <t>OMX Index.5</t>
+  </si>
 </sst>
 </file>
 
@@ -755,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:ABG15"/>
+  <dimension ref="A1:ABK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="ABC1" zoomScale="185" workbookViewId="0">
+      <selection activeCell="ABJ4" sqref="ABJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -768,17 +780,17 @@
     <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:739" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -2981,8 +2993,20 @@
       <c r="ABG4" t="s">
         <v>123</v>
       </c>
+      <c r="ABH4" t="s">
+        <v>133</v>
+      </c>
+      <c r="ABI4" t="s">
+        <v>134</v>
+      </c>
+      <c r="ABJ4" t="s">
+        <v>135</v>
+      </c>
+      <c r="ABK4" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="5" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:739" x14ac:dyDescent="0.2">
       <c r="B5" t="e">
         <f ca="1">_xll.BFieldInfo(B$6)</f>
         <v>#NAME?</v>
@@ -5920,7 +5944,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -8127,7 +8151,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A7" t="e">
         <f ca="1">_xll.BDH(#REF!,#REF!,#REF!,#REF!,"Dir=V","Per=Y","Days=A","Dts=S")</f>
         <v>#NAME?</v>
@@ -11069,7 +11093,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -13183,7 +13207,7 @@
         <v>50752.876199999999</v>
       </c>
     </row>
-    <row r="9" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -15297,7 +15321,7 @@
         <v>108407.2473</v>
       </c>
     </row>
-    <row r="10" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -17411,7 +17435,7 @@
         <v>101689.0281</v>
       </c>
     </row>
-    <row r="11" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -19525,7 +19549,7 @@
         <v>92405.090899999996</v>
       </c>
     </row>
-    <row r="12" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -21639,7 +21663,7 @@
         <v>101223.0031</v>
       </c>
     </row>
-    <row r="13" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -23753,7 +23777,7 @@
         <v>133900.8015</v>
       </c>
     </row>
-    <row r="14" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -25867,7 +25891,7 @@
         <v>290740.78419999999</v>
       </c>
     </row>
-    <row r="15" spans="1:735" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:739" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2021</v>
       </c>
